--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>iconResource</t>
@@ -1200,19 +1203,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="17.9326923076923" customWidth="1"/>
-    <col min="4" max="4" width="13.3173076923077" customWidth="1"/>
+    <col min="3" max="4" width="17.9326923076923" customWidth="1"/>
+    <col min="5" max="5" width="13.3173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,109 +1231,130 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="1">
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:5">
+    <row r="4" ht="17" customHeight="1" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+      <c r="C4" s="2">
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="1">
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
         <v>250</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
+      <c r="H6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:5">
+    <row r="7" ht="17" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+      <c r="C7" s="2">
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
         <v>450</v>
       </c>
     </row>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>invokeType</t>
+  </si>
+  <si>
     <t>iconResource</t>
   </si>
   <si>
@@ -32,6 +35,12 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>effect.effectType</t>
+  </si>
+  <si>
+    <t>effect.value</t>
   </si>
   <si>
     <t>wooden_sword_icon</t>
@@ -50,9 +59,6 @@
   </si>
   <si>
     <t>magic_sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1203,19 +1209,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="4" width="17.9326923076923" customWidth="1"/>
-    <col min="5" max="5" width="13.3173076923077" customWidth="1"/>
+    <col min="3" max="5" width="17.9326923076923" customWidth="1"/>
+    <col min="6" max="6" width="13.3173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,8 +1240,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1245,17 +1260,26 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
         <v>100</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1265,17 +1289,26 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
         <v>200</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:6">
+    <row r="4" ht="17" customHeight="1" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1285,17 +1318,26 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
+      <c r="D4" s="1">
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
         <v>400</v>
       </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1305,17 +1347,26 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
+      <c r="D5" s="1">
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
         <v>150</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1325,20 +1376,26 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
         <v>250</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:6">
+    <row r="7" ht="17" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1348,14 +1405,23 @@
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
+      <c r="D7" s="1">
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
         <v>450</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -25,40 +25,268 @@
     <t>type</t>
   </si>
   <si>
+    <t>equipType</t>
+  </si>
+  <si>
     <t>invokeType</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>iconResource</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>effect.effectType</t>
-  </si>
-  <si>
-    <t>effect.value</t>
+    <t>iconResource2</t>
+  </si>
+  <si>
+    <t>takeEnergy</t>
+  </si>
+  <si>
+    <t>effect1.effectType</t>
+  </si>
+  <si>
+    <t>effect1.propertyType</t>
+  </si>
+  <si>
+    <t>effect1.methodName</t>
+  </si>
+  <si>
+    <t>effect1.value</t>
+  </si>
+  <si>
+    <t>effect2.effectType</t>
+  </si>
+  <si>
+    <t>effect2.propertyType</t>
+  </si>
+  <si>
+    <t>effect2.methodName</t>
+  </si>
+  <si>
+    <t>effect2.value</t>
+  </si>
+  <si>
+    <t>effect3.effectType</t>
+  </si>
+  <si>
+    <t>effect3.propertyType</t>
+  </si>
+  <si>
+    <t>effect3.methodName</t>
+  </si>
+  <si>
+    <t>effect3.value</t>
+  </si>
+  <si>
+    <t>wooden_sword</t>
   </si>
   <si>
     <t>wooden_sword_icon</t>
   </si>
   <si>
-    <t>wooden_sword</t>
+    <t>wooden_sword_icon_big</t>
+  </si>
+  <si>
+    <t>iron_sword</t>
   </si>
   <si>
     <t>iron_sword_icon</t>
   </si>
   <si>
-    <t>iron_sword</t>
+    <t>iron_sword_icon_big</t>
+  </si>
+  <si>
+    <t>magic_sword</t>
   </si>
   <si>
     <t>magic_sword_icon</t>
   </si>
   <si>
-    <t>magic_sword</t>
+    <t>magic_sword_icon_big</t>
+  </si>
+  <si>
+    <t>fast_shoes</t>
+  </si>
+  <si>
+    <t>fast_shoes_icon</t>
+  </si>
+  <si>
+    <t>fast_shoes_icon_big</t>
+  </si>
+  <si>
+    <t>stab_shield</t>
+  </si>
+  <si>
+    <t>stab_shield_icon</t>
+  </si>
+  <si>
+    <t>stab_shield_icon_big</t>
+  </si>
+  <si>
+    <t>arm_shield</t>
+  </si>
+  <si>
+    <t>arm_shield_icon</t>
+  </si>
+  <si>
+    <t>arm_shield_icon_big</t>
+  </si>
+  <si>
+    <t>wood_shield</t>
+  </si>
+  <si>
+    <t>wood_shield_icon</t>
+  </si>
+  <si>
+    <t>wood_shield_icon_big</t>
+  </si>
+  <si>
+    <t>long_arch</t>
+  </si>
+  <si>
+    <t>long_arch_icon</t>
+  </si>
+  <si>
+    <t>long_arch_icon_big</t>
+  </si>
+  <si>
+    <t>wood_arch</t>
+  </si>
+  <si>
+    <t>wood_arch_icon</t>
+  </si>
+  <si>
+    <t>wood_arch_icon_big</t>
+  </si>
+  <si>
+    <t>zhuge_bow</t>
+  </si>
+  <si>
+    <t>zhuge_bow_icon</t>
+  </si>
+  <si>
+    <t>zhuge_bow_icon_big</t>
+  </si>
+  <si>
+    <t>multi_bow</t>
+  </si>
+  <si>
+    <t>multi_bow_icon</t>
+  </si>
+  <si>
+    <t>multi_bow_icon_big</t>
+  </si>
+  <si>
+    <t>hand_bow</t>
+  </si>
+  <si>
+    <t>hand_bow_icon</t>
+  </si>
+  <si>
+    <t>shadow_charm</t>
+  </si>
+  <si>
+    <t>shadow_charm_icon</t>
+  </si>
+  <si>
+    <t>exchange_charm</t>
+  </si>
+  <si>
+    <t>exchange_charm_icon</t>
+  </si>
+  <si>
+    <t>silent_charm</t>
+  </si>
+  <si>
+    <t>silent_charm_icon</t>
+  </si>
+  <si>
+    <t>confine_charm</t>
+  </si>
+  <si>
+    <t>confine_charm_icon</t>
+  </si>
+  <si>
+    <t>thunder_charm</t>
+  </si>
+  <si>
+    <t>thunder_charm_icon</t>
+  </si>
+  <si>
+    <t>king_arrow</t>
+  </si>
+  <si>
+    <t>king_arrow_icon</t>
+  </si>
+  <si>
+    <t>treasure_bowl</t>
+  </si>
+  <si>
+    <t>treasure_bowl_icon</t>
+  </si>
+  <si>
+    <t>shield_token</t>
+  </si>
+  <si>
+    <t>shield_token_icon</t>
+  </si>
+  <si>
+    <t>sword_stone</t>
+  </si>
+  <si>
+    <t>sword_stone_icon</t>
+  </si>
+  <si>
+    <t>energy_potion</t>
+  </si>
+  <si>
+    <t>energy_potion_icon</t>
+  </si>
+  <si>
+    <t>angry_potion</t>
+  </si>
+  <si>
+    <t>angry_potion_icon</t>
+  </si>
+  <si>
+    <t>lucky_potion</t>
+  </si>
+  <si>
+    <t>lucky_potion_icon</t>
+  </si>
+  <si>
+    <t>boutique_feather</t>
+  </si>
+  <si>
+    <t>boutique_feather_icon</t>
+  </si>
+  <si>
+    <t>boutique_rice</t>
+  </si>
+  <si>
+    <t>boutique_rice_icon</t>
+  </si>
+  <si>
+    <t>trophy</t>
+  </si>
+  <si>
+    <t>trophy_icon</t>
+  </si>
+  <si>
+    <t>jerky</t>
+  </si>
+  <si>
+    <t>jerky_icon</t>
+  </si>
+  <si>
+    <t>month_card</t>
+  </si>
+  <si>
+    <t>month_card_icon</t>
   </si>
 </sst>
 </file>
@@ -1209,19 +1437,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="3" max="5" width="17.9326923076923" customWidth="1"/>
+    <col min="1" max="1" width="4.70192307692308" customWidth="1"/>
+    <col min="2" max="2" width="5.39423076923077" customWidth="1"/>
+    <col min="3" max="3" width="5.48076923076923" customWidth="1"/>
+    <col min="4" max="4" width="10.4423076923077" customWidth="1"/>
+    <col min="5" max="5" width="8.96153846153846" customWidth="1"/>
     <col min="6" max="6" width="13.3173076923077" customWidth="1"/>
+    <col min="8" max="8" width="16.1923076923077" customWidth="1"/>
+    <col min="9" max="9" width="18.5384615384615" customWidth="1"/>
+    <col min="10" max="11" width="12.8846153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,14 +1478,53 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1261,25 +1535,34 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1287,28 +1570,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:9">
+    <row r="4" ht="17" customHeight="1" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1316,115 +1608,848 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1">
         <v>400</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
-        <v>150</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
-        <v>250</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="17" spans="1:9">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1">
-        <v>450</v>
-      </c>
-      <c r="H7">
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>6</v>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20">
+        <v>400</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26">
+        <v>400</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28">
+        <v>200</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30">
+        <v>400</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:O30">
+    <sortCondition ref="C2:C30"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -82,13 +82,13 @@
     <t>effect3.value</t>
   </si>
   <si>
-    <t>wooden_sword</t>
-  </si>
-  <si>
-    <t>wooden_sword_icon</t>
-  </si>
-  <si>
-    <t>wooden_sword_icon_big</t>
+    <t>wood_sword</t>
+  </si>
+  <si>
+    <t>wood_sword_icon</t>
+  </si>
+  <si>
+    <t>wood_sword_icon_big</t>
   </si>
   <si>
     <t>iron_sword</t>
@@ -1440,7 +1440,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2111,7 +2111,6 @@
       <c r="H19" t="s">
         <v>68</v>
       </c>
-      <c r="I19"/>
       <c r="J19">
         <v>0</v>
       </c>
@@ -2141,7 +2140,6 @@
       <c r="H20" t="s">
         <v>70</v>
       </c>
-      <c r="I20"/>
       <c r="J20">
         <v>0</v>
       </c>
@@ -2171,7 +2169,6 @@
       <c r="H21" t="s">
         <v>72</v>
       </c>
-      <c r="I21"/>
       <c r="J21">
         <v>0</v>
       </c>
@@ -2201,7 +2198,6 @@
       <c r="H22" t="s">
         <v>74</v>
       </c>
-      <c r="I22"/>
       <c r="J22">
         <v>0</v>
       </c>
@@ -2231,7 +2227,6 @@
       <c r="H23" t="s">
         <v>76</v>
       </c>
-      <c r="I23"/>
       <c r="J23">
         <v>0</v>
       </c>
@@ -2261,7 +2256,6 @@
       <c r="H24" t="s">
         <v>78</v>
       </c>
-      <c r="I24"/>
       <c r="J24">
         <v>0</v>
       </c>
@@ -2291,7 +2285,6 @@
       <c r="H25" t="s">
         <v>80</v>
       </c>
-      <c r="I25"/>
       <c r="J25">
         <v>0</v>
       </c>
@@ -2321,7 +2314,6 @@
       <c r="H26" t="s">
         <v>82</v>
       </c>
-      <c r="I26"/>
       <c r="J26">
         <v>0</v>
       </c>
@@ -2351,7 +2343,6 @@
       <c r="H27" t="s">
         <v>84</v>
       </c>
-      <c r="I27"/>
       <c r="J27">
         <v>0</v>
       </c>
@@ -2381,7 +2372,6 @@
       <c r="H28" t="s">
         <v>86</v>
       </c>
-      <c r="I28"/>
       <c r="J28">
         <v>0</v>
       </c>
@@ -2411,7 +2401,6 @@
       <c r="H29" t="s">
         <v>88</v>
       </c>
-      <c r="I29"/>
       <c r="J29">
         <v>0</v>
       </c>
@@ -2441,7 +2430,6 @@
       <c r="H30" t="s">
         <v>90</v>
       </c>
-      <c r="I30"/>
       <c r="J30">
         <v>0</v>
       </c>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>iconResource2</t>
+  </si>
+  <si>
+    <t>targetRange</t>
   </si>
   <si>
     <t>takeEnergy</t>
@@ -1437,10 +1440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1452,11 +1455,24 @@
     <col min="5" max="5" width="8.96153846153846" customWidth="1"/>
     <col min="6" max="6" width="13.3173076923077" customWidth="1"/>
     <col min="8" max="8" width="16.1923076923077" customWidth="1"/>
-    <col min="9" max="9" width="18.5384615384615" customWidth="1"/>
-    <col min="10" max="11" width="12.8846153846154" customWidth="1"/>
+    <col min="9" max="9" width="20.8269230769231" customWidth="1"/>
+    <col min="10" max="10" width="11.2115384615385" customWidth="1"/>
+    <col min="11" max="11" width="10.4807692307692" customWidth="1"/>
+    <col min="12" max="12" width="15.8942307692308" customWidth="1"/>
+    <col min="13" max="13" width="18.3653846153846" customWidth="1"/>
+    <col min="14" max="14" width="18.4903846153846" customWidth="1"/>
+    <col min="15" max="15" width="11.5769230769231" customWidth="1"/>
+    <col min="16" max="16" width="16.0192307692308" customWidth="1"/>
+    <col min="17" max="17" width="18.4807692307692" customWidth="1"/>
+    <col min="18" max="18" width="18.6057692307692" customWidth="1"/>
+    <col min="19" max="19" width="11.7019230769231" customWidth="1"/>
+    <col min="20" max="20" width="16.1442307692308" customWidth="1"/>
+    <col min="21" max="21" width="18.7307692307692" customWidth="1"/>
+    <col min="22" max="22" width="18.8653846153846" customWidth="1"/>
+    <col min="23" max="23" width="11.7019230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,8 +1539,11 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1538,31 +1557,37 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1576,31 +1601,37 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:14">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1614,31 +1645,37 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1652,25 +1689,37 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>400</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1684,25 +1733,28 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>400</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1716,25 +1768,28 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1748,25 +1803,28 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1780,25 +1838,37 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>200</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1812,25 +1882,37 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1844,25 +1926,46 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>-10</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1876,25 +1979,46 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>-6</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1908,25 +2032,37 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1940,25 +2076,28 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1972,25 +2111,28 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2004,25 +2146,28 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2036,25 +2181,28 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2068,25 +2216,37 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>9</v>
+      </c>
+      <c r="O18">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2103,19 +2263,22 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19">
         <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2132,19 +2295,22 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2161,19 +2327,22 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21">
         <v>200</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2190,19 +2359,22 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2219,19 +2391,31 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>200</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2248,19 +2432,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24">
         <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2277,19 +2464,31 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25">
         <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2306,19 +2505,22 @@
         <v>-1</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2335,19 +2537,22 @@
         <v>-1</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27">
         <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2364,19 +2569,22 @@
         <v>-1</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2393,19 +2601,22 @@
         <v>-1</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29">
         <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2422,20 +2633,23 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G30">
         <v>400</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:O30">
+  <sortState ref="B2:P30">
     <sortCondition ref="C2:C30"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1443,7 +1456,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2415,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2445,6 +2458,15 @@
       </c>
       <c r="K24">
         <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:15">

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -98,6 +98,9 @@
     <t>effect3.value</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>wood_sword</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t>wood_sword_icon_big</t>
   </si>
   <si>
+    <t>wood_sword吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>iron_sword</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
     <t>iron_sword_icon_big</t>
   </si>
   <si>
+    <t>iron_sword吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>magic_sword</t>
   </si>
   <si>
@@ -125,6 +134,9 @@
     <t>magic_sword_icon_big</t>
   </si>
   <si>
+    <t>magic_sword吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>fast_shoes</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
     <t>fast_shoes_icon_big</t>
   </si>
   <si>
+    <t>fast_shoes吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>stab_shield</t>
   </si>
   <si>
@@ -143,6 +158,9 @@
     <t>stab_shield_icon_big</t>
   </si>
   <si>
+    <t>stab_shield吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>arm_shield</t>
   </si>
   <si>
@@ -152,6 +170,9 @@
     <t>arm_shield_icon_big</t>
   </si>
   <si>
+    <t>arm_shield吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>wood_shield</t>
   </si>
   <si>
@@ -161,6 +182,9 @@
     <t>wood_shield_icon_big</t>
   </si>
   <si>
+    <t>wood_shield吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>long_arch</t>
   </si>
   <si>
@@ -170,6 +194,9 @@
     <t>long_arch_icon_big</t>
   </si>
   <si>
+    <t>long_arch吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>wood_arch</t>
   </si>
   <si>
@@ -179,6 +206,9 @@
     <t>wood_arch_icon_big</t>
   </si>
   <si>
+    <t>wood_arch吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>zhuge_bow</t>
   </si>
   <si>
@@ -188,6 +218,9 @@
     <t>zhuge_bow_icon_big</t>
   </si>
   <si>
+    <t>zhuge_bow吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>multi_bow</t>
   </si>
   <si>
@@ -197,112 +230,169 @@
     <t>multi_bow_icon_big</t>
   </si>
   <si>
+    <t>multi_bow吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>hand_bow</t>
   </si>
   <si>
     <t>hand_bow_icon</t>
   </si>
   <si>
+    <t>hand_bow吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>shadow_charm</t>
   </si>
   <si>
     <t>shadow_charm_icon</t>
   </si>
   <si>
+    <t>shadow_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>exchange_charm</t>
   </si>
   <si>
     <t>exchange_charm_icon</t>
   </si>
   <si>
+    <t>exchange_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>silent_charm</t>
   </si>
   <si>
     <t>silent_charm_icon</t>
   </si>
   <si>
+    <t>silent_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>confine_charm</t>
   </si>
   <si>
     <t>confine_charm_icon</t>
   </si>
   <si>
+    <t>confine_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>thunder_charm</t>
   </si>
   <si>
     <t>thunder_charm_icon</t>
   </si>
   <si>
+    <t>thunder_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>king_arrow</t>
   </si>
   <si>
     <t>king_arrow_icon</t>
   </si>
   <si>
+    <t>king_arrow吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>treasure_bowl</t>
   </si>
   <si>
     <t>treasure_bowl_icon</t>
   </si>
   <si>
+    <t>treasure_bowl吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>shield_token</t>
   </si>
   <si>
     <t>shield_token_icon</t>
   </si>
   <si>
+    <t>shield_token吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>sword_stone</t>
   </si>
   <si>
     <t>sword_stone_icon</t>
   </si>
   <si>
+    <t>sword_stone吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>energy_potion</t>
   </si>
   <si>
     <t>energy_potion_icon</t>
   </si>
   <si>
+    <t>energy_potion吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>angry_potion</t>
   </si>
   <si>
     <t>angry_potion_icon</t>
   </si>
   <si>
+    <t>angry_potion吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>lucky_potion</t>
   </si>
   <si>
     <t>lucky_potion_icon</t>
   </si>
   <si>
+    <t>lucky_potion吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>boutique_feather</t>
   </si>
   <si>
     <t>boutique_feather_icon</t>
   </si>
   <si>
+    <t>boutique_feather吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>boutique_rice</t>
   </si>
   <si>
     <t>boutique_rice_icon</t>
   </si>
   <si>
+    <t>boutique_rice吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>trophy</t>
   </si>
   <si>
     <t>trophy_icon</t>
   </si>
   <si>
+    <t>trophy吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>jerky</t>
   </si>
   <si>
     <t>jerky_icon</t>
   </si>
   <si>
+    <t>jerky吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
     <t>month_card</t>
   </si>
   <si>
     <t>month_card_icon</t>
+  </si>
+  <si>
+    <t>month_card吧啦吧啦吧啦吧啦吧啦吧啦</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1483,9 +1573,10 @@
     <col min="21" max="21" width="18.7307692307692" customWidth="1"/>
     <col min="22" max="22" width="18.8653846153846" customWidth="1"/>
     <col min="23" max="23" width="11.7019230769231" customWidth="1"/>
+    <col min="24" max="24" width="73.5961538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,8 +1646,11 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1573,16 +1667,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1599,8 +1693,11 @@
       <c r="O2">
         <v>-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="X2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1617,16 +1714,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1643,8 +1740,11 @@
       <c r="O3">
         <v>-20</v>
       </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:15">
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1661,16 +1761,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1">
         <v>400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -1687,8 +1787,11 @@
       <c r="O4">
         <v>-30</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="X4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1705,16 +1808,16 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>400</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -1731,8 +1834,11 @@
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1749,16 +1855,16 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>400</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1766,8 +1872,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1784,16 +1893,16 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1801,8 +1910,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="X7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1819,16 +1931,16 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1836,8 +1948,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="X8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1854,16 +1969,16 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>200</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1880,8 +1995,11 @@
       <c r="O9">
         <v>-15</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1898,16 +2016,16 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1924,8 +2042,11 @@
       <c r="O10">
         <v>-10</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="X10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1942,16 +2063,16 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1977,8 +2098,11 @@
       <c r="S11">
         <v>-10</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="X11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1995,16 +2119,16 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -2030,8 +2154,11 @@
       <c r="S12">
         <v>-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="X12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2048,16 +2175,16 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -2074,8 +2201,11 @@
       <c r="O13">
         <v>-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="X13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2092,16 +2222,16 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G14">
         <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2109,8 +2239,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="X14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2127,16 +2260,16 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G15">
         <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2144,8 +2277,11 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="X15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2162,16 +2298,16 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G16">
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2179,8 +2315,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="X16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2197,16 +2336,16 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2214,8 +2353,11 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="X17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2232,16 +2374,16 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -2258,8 +2400,11 @@
       <c r="O18">
         <v>-20</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="X18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2276,13 +2421,13 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G19">
         <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="J19">
         <v>-1</v>
@@ -2290,8 +2435,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="X19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2308,13 +2456,13 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G20">
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="J20">
         <v>-1</v>
@@ -2322,8 +2470,11 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="X20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2340,13 +2491,13 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G21">
         <v>200</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -2354,8 +2505,11 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="X21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2372,13 +2526,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="J22">
         <v>-1</v>
@@ -2386,8 +2540,11 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="X22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2404,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G23">
         <v>200</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2427,8 +2584,11 @@
       <c r="O23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="X23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2445,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G24">
         <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="J24">
         <v>-1</v>
@@ -2468,8 +2628,11 @@
       <c r="O24">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="X24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2486,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G25">
         <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2509,8 +2672,11 @@
       <c r="O25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="X25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2527,13 +2693,13 @@
         <v>-1</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2541,8 +2707,11 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="X26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2559,13 +2728,13 @@
         <v>-1</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G27">
         <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2573,8 +2742,11 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="X27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2591,13 +2763,13 @@
         <v>-1</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="J28">
         <v>-1</v>
@@ -2605,8 +2777,11 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="X28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2623,13 +2798,13 @@
         <v>-1</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="G29">
         <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="J29">
         <v>-1</v>
@@ -2637,8 +2812,11 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="X29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2655,19 +2833,22 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G30">
         <v>400</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="J30">
         <v>-1</v>
       </c>
       <c r="K30">
         <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -98,7 +98,16 @@
     <t>effect3.value</t>
   </si>
   <si>
-    <t>Desc</t>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>ExtraEntry1</t>
+  </si>
+  <si>
+    <t>ExtraEntry2</t>
+  </si>
+  <si>
+    <t>ExtraEntry3</t>
   </si>
   <si>
     <t>wood_sword</t>
@@ -1543,10 +1552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1573,10 +1582,13 @@
     <col min="21" max="21" width="18.7307692307692" customWidth="1"/>
     <col min="22" max="22" width="18.8653846153846" customWidth="1"/>
     <col min="23" max="23" width="11.7019230769231" customWidth="1"/>
-    <col min="24" max="24" width="73.5961538461538" customWidth="1"/>
+    <col min="24" max="24" width="71.8557692307692" customWidth="1"/>
+    <col min="25" max="25" width="12.0769230769231" customWidth="1"/>
+    <col min="26" max="26" width="12.5673076923077" customWidth="1"/>
+    <col min="27" max="27" width="12.3173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,8 +1661,17 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1667,16 +1688,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1694,10 +1715,19 @@
         <v>-10</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1714,16 +1744,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1741,10 +1771,19 @@
         <v>-20</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:24">
+    <row r="4" ht="17" customHeight="1" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1761,16 +1800,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1">
         <v>400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -1788,10 +1827,19 @@
         <v>-30</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1808,16 +1856,16 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>400</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -1835,10 +1883,19 @@
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1855,16 +1912,16 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>400</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1873,10 +1930,19 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1893,16 +1959,16 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1911,10 +1977,19 @@
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1931,16 +2006,16 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1949,10 +2024,19 @@
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1969,16 +2053,16 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G9">
         <v>200</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1996,10 +2080,19 @@
         <v>-15</v>
       </c>
       <c r="X9" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2016,16 +2109,16 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2043,10 +2136,19 @@
         <v>-10</v>
       </c>
       <c r="X10" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2063,16 +2165,16 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -2099,10 +2201,19 @@
         <v>-10</v>
       </c>
       <c r="X11" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2119,16 +2230,16 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G12">
         <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -2155,10 +2266,19 @@
         <v>-6</v>
       </c>
       <c r="X12" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2175,16 +2295,16 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -2202,10 +2322,19 @@
         <v>-10</v>
       </c>
       <c r="X13" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2222,16 +2351,16 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G14">
         <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2240,10 +2369,19 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2260,16 +2398,16 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15">
         <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2278,10 +2416,19 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2298,16 +2445,16 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G16">
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2316,10 +2463,19 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2336,16 +2492,16 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2354,10 +2510,19 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2374,16 +2539,16 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -2401,10 +2566,19 @@
         <v>-20</v>
       </c>
       <c r="X18" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2421,13 +2595,13 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G19">
         <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>-1</v>
@@ -2436,10 +2610,19 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2456,13 +2639,13 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G20">
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J20">
         <v>-1</v>
@@ -2471,10 +2654,19 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2491,13 +2683,13 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G21">
         <v>200</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -2506,10 +2698,19 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2526,13 +2727,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J22">
         <v>-1</v>
@@ -2541,10 +2742,19 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2561,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G23">
         <v>200</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2585,10 +2795,19 @@
         <v>1</v>
       </c>
       <c r="X23" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2605,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G24">
         <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J24">
         <v>-1</v>
@@ -2629,10 +2848,19 @@
         <v>150</v>
       </c>
       <c r="X24" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2649,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G25">
         <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2673,10 +2901,19 @@
         <v>10</v>
       </c>
       <c r="X25" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2693,13 +2930,13 @@
         <v>-1</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2708,10 +2945,19 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2728,13 +2974,13 @@
         <v>-1</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2743,10 +2989,19 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2763,13 +3018,13 @@
         <v>-1</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J28">
         <v>-1</v>
@@ -2778,10 +3033,19 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2798,13 +3062,13 @@
         <v>-1</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G29">
         <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J29">
         <v>-1</v>
@@ -2813,10 +3077,19 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2833,13 +3106,13 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G30">
         <v>400</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J30">
         <v>-1</v>
@@ -2848,7 +3121,16 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="Y30">
+        <v>-1</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -1554,7 +1554,7 @@
   <sheetPr/>
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -1554,8 +1554,8 @@
   <sheetPr/>
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1706,13 +1706,13 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="O2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>30</v>
@@ -1762,13 +1762,13 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="O3">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>34</v>
@@ -1818,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="O4">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>38</v>
@@ -2071,13 +2071,13 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="O9">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="X9" t="s">
         <v>58</v>
@@ -2127,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="O10">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="X10" t="s">
         <v>62</v>
@@ -2183,22 +2183,22 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="O11">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="S11">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="X11" t="s">
         <v>66</v>
@@ -2248,22 +2248,22 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="O12">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="S12">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="X12" t="s">
         <v>70</v>
@@ -2313,13 +2313,13 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="O13">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="X13" t="s">
         <v>73</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="O18">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s">
         <v>88</v>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -2921,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>-1</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>-1</v>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>-1</v>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -1554,7 +1554,7 @@
   <sheetPr/>
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -1555,7 +1555,7 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1566,7 +1566,7 @@
     <col min="4" max="4" width="10.4423076923077" customWidth="1"/>
     <col min="5" max="5" width="8.96153846153846" customWidth="1"/>
     <col min="6" max="6" width="13.3173076923077" customWidth="1"/>
-    <col min="8" max="8" width="16.1923076923077" customWidth="1"/>
+    <col min="8" max="8" width="19.5961538461538" customWidth="1"/>
     <col min="9" max="9" width="20.8269230769231" customWidth="1"/>
     <col min="10" max="10" width="11.2115384615385" customWidth="1"/>
     <col min="11" max="11" width="10.4807692307692" customWidth="1"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,9 @@
     <t>effect1.effectType</t>
   </si>
   <si>
+    <t>effect1.invokeType</t>
+  </si>
+  <si>
     <t>effect1.propertyType</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>effect2.effectType</t>
   </si>
   <si>
+    <t>effect2.invokeType</t>
+  </si>
+  <si>
     <t>effect2.propertyType</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
   </si>
   <si>
     <t>effect3.effectType</t>
+  </si>
+  <si>
+    <t>effect3.invokeType</t>
   </si>
   <si>
     <t>effect3.propertyType</t>
@@ -1017,8 +1026,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1552,10 +1564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1570,50 +1582,51 @@
     <col min="9" max="9" width="20.8269230769231" customWidth="1"/>
     <col min="10" max="10" width="11.2115384615385" customWidth="1"/>
     <col min="11" max="11" width="10.4807692307692" customWidth="1"/>
-    <col min="12" max="12" width="15.8942307692308" customWidth="1"/>
-    <col min="13" max="13" width="18.3653846153846" customWidth="1"/>
-    <col min="14" max="14" width="18.4903846153846" customWidth="1"/>
-    <col min="15" max="15" width="11.5769230769231" customWidth="1"/>
-    <col min="16" max="16" width="16.0192307692308" customWidth="1"/>
-    <col min="17" max="17" width="18.4807692307692" customWidth="1"/>
-    <col min="18" max="18" width="18.6057692307692" customWidth="1"/>
-    <col min="19" max="19" width="11.7019230769231" customWidth="1"/>
-    <col min="20" max="20" width="16.1442307692308" customWidth="1"/>
-    <col min="21" max="21" width="18.7307692307692" customWidth="1"/>
-    <col min="22" max="22" width="18.8653846153846" customWidth="1"/>
-    <col min="23" max="23" width="11.7019230769231" customWidth="1"/>
-    <col min="24" max="24" width="71.8557692307692" customWidth="1"/>
-    <col min="25" max="25" width="12.0769230769231" customWidth="1"/>
-    <col min="26" max="26" width="12.5673076923077" customWidth="1"/>
-    <col min="27" max="27" width="12.3173076923077" customWidth="1"/>
+    <col min="12" max="12" width="15.8942307692308" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.3653846153846" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.3653846153846" customWidth="1"/>
+    <col min="15" max="15" width="18.4903846153846" customWidth="1"/>
+    <col min="16" max="16" width="11.5769230769231" customWidth="1"/>
+    <col min="17" max="17" width="16.0192307692308" customWidth="1"/>
+    <col min="18" max="19" width="18.4807692307692" customWidth="1"/>
+    <col min="20" max="20" width="18.6057692307692" customWidth="1"/>
+    <col min="21" max="21" width="11.7019230769231" customWidth="1"/>
+    <col min="22" max="22" width="16.1442307692308" customWidth="1"/>
+    <col min="23" max="24" width="18.7307692307692" customWidth="1"/>
+    <col min="25" max="25" width="18.8653846153846" customWidth="1"/>
+    <col min="26" max="26" width="11.7019230769231" customWidth="1"/>
+    <col min="27" max="27" width="71.8557692307692" customWidth="1"/>
+    <col min="28" max="28" width="12.0769230769231" customWidth="1"/>
+    <col min="29" max="29" width="12.5673076923077" customWidth="1"/>
+    <col min="30" max="30" width="12.3173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:30">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1622,10 +1635,10 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1670,34 +1683,43 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="2" spans="1:30">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
         <v>100</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1705,55 +1727,58 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="M2">
-        <v>-1</v>
-      </c>
-      <c r="O2">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-1</v>
+      </c>
+      <c r="P2">
         <v>10</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="AA2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+    <row r="3" spans="1:30">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2">
         <v>200</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1761,55 +1786,58 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>-1</v>
-      </c>
-      <c r="O3">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
+      <c r="P3">
         <v>20</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
+      <c r="AA3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:27">
-      <c r="A4" s="1">
+    <row r="4" ht="17" customHeight="1" spans="1:30">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2">
         <v>400</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
+      <c r="H4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -1817,30 +1845,33 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>-1</v>
-      </c>
-      <c r="O4">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
         <v>30</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
+      <c r="AA4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1">
+    <row r="5" spans="1:30">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1856,16 +1887,16 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>400</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -1873,30 +1904,33 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>7</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="X5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="1">
+    <row r="6" spans="1:30">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
@@ -1912,16 +1946,16 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>400</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1929,21 +1963,21 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="X6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="1">
+    <row r="7" spans="1:30">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
@@ -1959,16 +1993,16 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1976,21 +2010,21 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="X7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+      <c r="AA7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1">
+    <row r="8" spans="1:30">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -2006,16 +2040,16 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -2023,21 +2057,21 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="X8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="AA8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1">
+    <row r="9" spans="1:30">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
@@ -2053,16 +2087,16 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <v>200</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -2070,30 +2104,33 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>-1</v>
-      </c>
-      <c r="O9">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
         <v>15</v>
       </c>
-      <c r="X9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
+      <c r="AA9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="1">
+    <row r="10" spans="1:30">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
@@ -2109,16 +2146,16 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2126,30 +2163,33 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>-1</v>
-      </c>
-      <c r="O10">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
         <v>10</v>
       </c>
-      <c r="X10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
+      <c r="AA10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1">
+    <row r="11" spans="1:30">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
@@ -2165,16 +2205,16 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -2182,39 +2222,42 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>3</v>
       </c>
-      <c r="M11">
-        <v>-1</v>
-      </c>
-      <c r="O11">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
         <v>10</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3</v>
       </c>
-      <c r="Q11">
-        <v>-1</v>
-      </c>
       <c r="S11">
+        <v>-1</v>
+      </c>
+      <c r="U11">
         <v>10</v>
       </c>
-      <c r="X11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
+      <c r="AA11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="1">
+    <row r="12" spans="1:30">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12">
@@ -2230,16 +2273,16 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -2247,39 +2290,42 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>-1</v>
-      </c>
-      <c r="O12">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
         <v>6</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3</v>
       </c>
-      <c r="Q12">
-        <v>-1</v>
-      </c>
       <c r="S12">
+        <v>-1</v>
+      </c>
+      <c r="U12">
         <v>6</v>
       </c>
-      <c r="X12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
+      <c r="AA12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="1">
+    <row r="13" spans="1:30">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13">
@@ -2295,16 +2341,16 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -2312,30 +2358,33 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>3</v>
       </c>
-      <c r="M13">
-        <v>-1</v>
-      </c>
-      <c r="O13">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
         <v>10</v>
       </c>
-      <c r="X13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
+      <c r="AA13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="1">
+    <row r="14" spans="1:30">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14">
@@ -2351,16 +2400,16 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14">
         <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2368,21 +2417,21 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="X14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
+      <c r="AA14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="1">
+    <row r="15" spans="1:30">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15">
@@ -2398,16 +2447,16 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2415,21 +2464,21 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="X15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
+      <c r="AA15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="1">
+    <row r="16" spans="1:30">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16">
@@ -2445,16 +2494,16 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16">
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2462,21 +2511,21 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="X16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
+      <c r="AA16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="1">
+    <row r="17" spans="1:30">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17">
@@ -2492,16 +2541,16 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2509,21 +2558,21 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="X17" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
+      <c r="AA17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="1">
+    <row r="18" spans="1:30">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18">
@@ -2539,16 +2588,16 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -2556,30 +2605,33 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>3</v>
       </c>
-      <c r="M18">
-        <v>-1</v>
-      </c>
-      <c r="O18">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>-1</v>
+      </c>
+      <c r="P18">
         <v>20</v>
       </c>
-      <c r="X18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
+      <c r="AA18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="1">
+    <row r="19" spans="1:30">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19">
@@ -2595,13 +2647,13 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G19">
         <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J19">
         <v>-1</v>
@@ -2609,21 +2661,21 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="X19" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
+      <c r="AA19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="1">
+    <row r="20" spans="1:30">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20">
@@ -2639,13 +2691,13 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G20">
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J20">
         <v>-1</v>
@@ -2653,21 +2705,21 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="X20" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
+      <c r="AA20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="1">
+    <row r="21" spans="1:30">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21">
@@ -2683,13 +2735,13 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G21">
         <v>200</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -2697,21 +2749,21 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="X21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
+      <c r="AA21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="1">
+    <row r="22" spans="1:30">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22">
@@ -2727,13 +2779,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J22">
         <v>-1</v>
@@ -2741,21 +2793,21 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="X22" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
+      <c r="AA22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="1">
+    <row r="23" spans="1:30">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23">
@@ -2771,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G23">
         <v>200</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2785,30 +2837,33 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>7</v>
       </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="X23" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="1">
+    <row r="24" spans="1:30">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24">
@@ -2824,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G24">
         <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J24">
         <v>-1</v>
@@ -2838,30 +2893,33 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>10</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>150</v>
       </c>
-      <c r="X24" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
+      <c r="AA24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="1">
+    <row r="25" spans="1:30">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25">
@@ -2877,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G25">
         <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2891,30 +2949,33 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>8</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>10</v>
       </c>
-      <c r="X25" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
+      <c r="AA25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="1">
+    <row r="26" spans="1:30">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26">
@@ -2930,13 +2991,13 @@
         <v>-1</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2944,21 +3005,21 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="X26" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
+      <c r="AA26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="1">
+    <row r="27" spans="1:30">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27">
@@ -2974,13 +3035,13 @@
         <v>-1</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G27">
         <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2988,21 +3049,21 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="X27" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
+      <c r="AA27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="1">
+    <row r="28" spans="1:30">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28">
@@ -3018,13 +3079,13 @@
         <v>-1</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J28">
         <v>-1</v>
@@ -3032,21 +3093,21 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="X28" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
+      <c r="AA28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="1">
+    <row r="29" spans="1:30">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29">
@@ -3062,13 +3123,13 @@
         <v>-1</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G29">
         <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J29">
         <v>-1</v>
@@ -3076,21 +3137,21 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="X29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y29">
-        <v>-1</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
+      <c r="AA29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="1">
+    <row r="30" spans="1:30">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30">
@@ -3106,13 +3167,13 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G30">
         <v>400</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J30">
         <v>-1</v>
@@ -3120,21 +3181,21 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="X30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
+      <c r="AA30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:P30">
+  <sortState ref="B2:Q30">
     <sortCondition ref="C2:C30"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="28800" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1566,8 +1566,8 @@
   <sheetPr/>
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1577,7 +1577,7 @@
     <col min="3" max="3" width="5.48076923076923" customWidth="1"/>
     <col min="4" max="4" width="10.4423076923077" customWidth="1"/>
     <col min="5" max="5" width="8.96153846153846" customWidth="1"/>
-    <col min="6" max="6" width="13.3173076923077" customWidth="1"/>
+    <col min="6" max="6" width="14.6730769230769" customWidth="1"/>
     <col min="8" max="8" width="19.5961538461538" customWidth="1"/>
     <col min="9" max="9" width="20.8269230769231" customWidth="1"/>
     <col min="10" max="10" width="11.2115384615385" customWidth="1"/>
@@ -1963,6 +1963,18 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
       <c r="AA6" t="s">
         <v>49</v>
       </c>
@@ -2010,6 +2022,18 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
       <c r="AA7" t="s">
         <v>53</v>
       </c>
@@ -2057,6 +2081,18 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
       <c r="AA8" t="s">
         <v>57</v>
       </c>
@@ -2394,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -2412,10 +2448,19 @@
         <v>78</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="K14">
         <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
       </c>
       <c r="AA14" t="s">
         <v>79</v>
@@ -2441,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -2459,9 +2504,15 @@
         <v>81</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
@@ -2488,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -2506,10 +2557,19 @@
         <v>84</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16">
         <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
       </c>
       <c r="AA16" t="s">
         <v>85</v>
@@ -2535,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2553,10 +2613,19 @@
         <v>87</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
       </c>
       <c r="AA17" t="s">
         <v>88</v>
@@ -2582,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -2600,7 +2669,7 @@
         <v>90</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>0</v>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>invokeType</t>
   </si>
   <si>
+    <t>equipClass</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -311,7 +314,10 @@
     <t>king_arrow_icon</t>
   </si>
   <si>
-    <t>king_arrow吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>KingArrow</t>
+  </si>
+  <si>
+    <t>在王的指挥下，箭矢们的准确度大大提升了</t>
   </si>
   <si>
     <t>treasure_bowl</t>
@@ -320,7 +326,10 @@
     <t>treasure_bowl_icon</t>
   </si>
   <si>
-    <t>treasure_bowl吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>TreasureBowl</t>
+  </si>
+  <si>
+    <t>每次点击投入100羽毛，每次有5%的几率被破坏，破坏时使存储的羽毛增值为2倍</t>
   </si>
   <si>
     <t>shield_token</t>
@@ -329,7 +338,10 @@
     <t>shield_token_icon</t>
   </si>
   <si>
-    <t>shield_token吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>ShieldToken</t>
+  </si>
+  <si>
+    <t>角色每回合开始时获得10护甲</t>
   </si>
   <si>
     <t>sword_stone</t>
@@ -338,7 +350,10 @@
     <t>sword_stone_icon</t>
   </si>
   <si>
-    <t>sword_stone吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>SwordStone</t>
+  </si>
+  <si>
+    <t>观摩剑意石心有所感，使用剑系武器的暴击率提升了</t>
   </si>
   <si>
     <t>energy_potion</t>
@@ -1564,10 +1579,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1576,32 +1591,32 @@
     <col min="2" max="2" width="5.39423076923077" customWidth="1"/>
     <col min="3" max="3" width="5.48076923076923" customWidth="1"/>
     <col min="4" max="4" width="10.4423076923077" customWidth="1"/>
-    <col min="5" max="5" width="8.96153846153846" customWidth="1"/>
-    <col min="6" max="6" width="14.6730769230769" customWidth="1"/>
-    <col min="8" max="8" width="19.5961538461538" customWidth="1"/>
-    <col min="9" max="9" width="20.8269230769231" customWidth="1"/>
-    <col min="10" max="10" width="11.2115384615385" customWidth="1"/>
-    <col min="11" max="11" width="10.4807692307692" customWidth="1"/>
-    <col min="12" max="12" width="15.8942307692308" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.3653846153846" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.3653846153846" customWidth="1"/>
-    <col min="15" max="15" width="18.4903846153846" customWidth="1"/>
-    <col min="16" max="16" width="11.5769230769231" customWidth="1"/>
-    <col min="17" max="17" width="16.0192307692308" customWidth="1"/>
-    <col min="18" max="19" width="18.4807692307692" customWidth="1"/>
-    <col min="20" max="20" width="18.6057692307692" customWidth="1"/>
-    <col min="21" max="21" width="11.7019230769231" customWidth="1"/>
-    <col min="22" max="22" width="16.1442307692308" customWidth="1"/>
-    <col min="23" max="24" width="18.7307692307692" customWidth="1"/>
-    <col min="25" max="25" width="18.8653846153846" customWidth="1"/>
-    <col min="26" max="26" width="11.7019230769231" customWidth="1"/>
-    <col min="27" max="27" width="71.8557692307692" customWidth="1"/>
-    <col min="28" max="28" width="12.0769230769231" customWidth="1"/>
-    <col min="29" max="29" width="12.5673076923077" customWidth="1"/>
-    <col min="30" max="30" width="12.3173076923077" customWidth="1"/>
+    <col min="5" max="5" width="10.5865384615385" customWidth="1"/>
+    <col min="6" max="7" width="14.6730769230769" customWidth="1"/>
+    <col min="9" max="9" width="19.5961538461538" customWidth="1"/>
+    <col min="10" max="10" width="20.8269230769231" customWidth="1"/>
+    <col min="11" max="11" width="11.2115384615385" customWidth="1"/>
+    <col min="12" max="12" width="10.4807692307692" customWidth="1"/>
+    <col min="13" max="13" width="15.8942307692308" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.3653846153846" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3653846153846" customWidth="1"/>
+    <col min="16" max="16" width="18.4903846153846" customWidth="1"/>
+    <col min="17" max="17" width="11.5769230769231" customWidth="1"/>
+    <col min="18" max="18" width="16.0192307692308" customWidth="1"/>
+    <col min="19" max="20" width="18.4807692307692" customWidth="1"/>
+    <col min="21" max="21" width="18.6057692307692" customWidth="1"/>
+    <col min="22" max="22" width="11.7019230769231" customWidth="1"/>
+    <col min="23" max="23" width="16.1442307692308" customWidth="1"/>
+    <col min="24" max="25" width="18.7307692307692" customWidth="1"/>
+    <col min="26" max="26" width="18.8653846153846" customWidth="1"/>
+    <col min="27" max="27" width="11.7019230769231" customWidth="1"/>
+    <col min="28" max="28" width="80.1153846153846" customWidth="1"/>
+    <col min="29" max="29" width="12.0769230769231" customWidth="1"/>
+    <col min="30" max="30" width="12.5673076923077" customWidth="1"/>
+    <col min="31" max="31" width="12.3173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1629,19 +1644,19 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -1692,8 +1707,11 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1709,50 +1727,53 @@
       <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2">
         <v>100</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>-1</v>
-      </c>
-      <c r="P2">
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2">
-        <v>-1</v>
+      <c r="AB2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1768,50 +1789,53 @@
       <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
         <v>200</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>-1</v>
-      </c>
-      <c r="P3">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>-1</v>
+      </c>
+      <c r="Q3">
         <v>20</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3">
-        <v>-1</v>
+      <c r="AB3" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:30">
+    <row r="4" ht="17" customHeight="1" spans="1:31">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1827,50 +1851,53 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2">
         <v>400</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>-1</v>
-      </c>
-      <c r="P4">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="Q4">
         <v>30</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
+      <c r="AB4" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1886,50 +1913,53 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5">
         <v>400</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
       </c>
       <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="J5">
-        <v>-1</v>
+      <c r="J5" t="s">
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>7</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB5">
-        <v>-1</v>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>46</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1945,50 +1975,53 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6">
         <v>400</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="J6">
-        <v>-1</v>
+      <c r="J6" t="s">
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>11</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>30</v>
       </c>
-      <c r="AA6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
+      <c r="AB6" t="s">
+        <v>50</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2004,50 +2037,53 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7">
         <v>200</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
       </c>
       <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="J7">
-        <v>-1</v>
+      <c r="J7" t="s">
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>11</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>20</v>
       </c>
-      <c r="AA7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB7">
-        <v>-1</v>
+      <c r="AB7" t="s">
+        <v>54</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2063,50 +2099,53 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8">
         <v>100</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="J8">
-        <v>-1</v>
+      <c r="J8" t="s">
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>11</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>10</v>
       </c>
-      <c r="AA8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
+      <c r="AB8" t="s">
+        <v>58</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2122,50 +2161,53 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9">
         <v>200</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
       </c>
       <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <v>3</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>-1</v>
-      </c>
-      <c r="P9">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="Q9">
         <v>15</v>
       </c>
-      <c r="AA9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
+      <c r="AB9" t="s">
+        <v>62</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2181,50 +2223,53 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10">
         <v>100</v>
-      </c>
-      <c r="H10" t="s">
-        <v>63</v>
       </c>
       <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="J10">
-        <v>1</v>
+      <c r="J10" t="s">
+        <v>65</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>3</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>-1</v>
-      </c>
-      <c r="P10">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
         <v>10</v>
       </c>
-      <c r="AA10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
+      <c r="AB10" t="s">
+        <v>66</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2240,59 +2285,62 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11">
         <v>400</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
       </c>
       <c r="I11" t="s">
         <v>68</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>3</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>-1</v>
-      </c>
-      <c r="P11">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="Q11">
         <v>10</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="S11">
-        <v>-1</v>
-      </c>
-      <c r="U11">
+      <c r="T11">
+        <v>-1</v>
+      </c>
+      <c r="V11">
         <v>10</v>
       </c>
-      <c r="AA11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
+      <c r="AB11" t="s">
+        <v>70</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2308,59 +2356,62 @@
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
         <v>200</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
       </c>
       <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
         <v>3</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>-1</v>
-      </c>
-      <c r="P12">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
         <v>6</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="S12">
-        <v>-1</v>
-      </c>
-      <c r="U12">
+      <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="V12">
         <v>6</v>
       </c>
-      <c r="AA12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
+      <c r="AB12" t="s">
+        <v>74</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2376,50 +2427,53 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13">
         <v>100</v>
       </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
       <c r="I13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
         <v>3</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>-1</v>
-      </c>
-      <c r="P13">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
         <v>10</v>
       </c>
-      <c r="AA13" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
+      <c r="AB13" t="s">
+        <v>77</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2435,47 +2489,50 @@
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14">
         <v>200</v>
       </c>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
       <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14">
-        <v>-1</v>
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>80</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2491,44 +2548,47 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15">
         <v>200</v>
       </c>
-      <c r="H15" t="s">
-        <v>81</v>
-      </c>
       <c r="I15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>2</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>83</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2544,47 +2604,50 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16">
         <v>100</v>
       </c>
-      <c r="H16" t="s">
-        <v>84</v>
-      </c>
       <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
+      <c r="L16">
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>12</v>
       </c>
-      <c r="AA16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
+      <c r="AB16" t="s">
+        <v>86</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2600,47 +2663,50 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17">
         <v>100</v>
       </c>
-      <c r="H17" t="s">
-        <v>87</v>
-      </c>
       <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17">
+        <v>88</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
+      <c r="L17">
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>13</v>
       </c>
-      <c r="AA17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
+      <c r="AB17" t="s">
+        <v>89</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2656,50 +2722,53 @@
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18">
         <v>100</v>
       </c>
-      <c r="H18" t="s">
-        <v>90</v>
-      </c>
       <c r="I18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>3</v>
       </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>-1</v>
-      </c>
-      <c r="P18">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>-1</v>
+      </c>
+      <c r="Q18">
         <v>20</v>
       </c>
-      <c r="AA18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
+      <c r="AB18" t="s">
+        <v>92</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2715,35 +2784,41 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19">
         <v>200</v>
       </c>
-      <c r="H19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19">
-        <v>-1</v>
+      <c r="I19" t="s">
+        <v>94</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>96</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2757,37 +2832,43 @@
         <v>-1</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20">
         <v>400</v>
       </c>
-      <c r="H20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20">
-        <v>-1</v>
+      <c r="I20" t="s">
+        <v>98</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>100</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2803,35 +2884,41 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21">
         <v>200</v>
       </c>
-      <c r="H21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21">
-        <v>-1</v>
+      <c r="I21" t="s">
+        <v>102</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>104</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2847,35 +2934,41 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22">
         <v>100</v>
       </c>
-      <c r="H22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22">
-        <v>-1</v>
+      <c r="I22" t="s">
+        <v>106</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>108</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2891,47 +2984,50 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23">
         <v>200</v>
       </c>
-      <c r="H23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23">
-        <v>-1</v>
+      <c r="I23" t="s">
+        <v>110</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>7</v>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>111</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2947,47 +3043,50 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24">
         <v>200</v>
       </c>
-      <c r="H24" t="s">
-        <v>108</v>
-      </c>
-      <c r="J24">
-        <v>-1</v>
+      <c r="I24" t="s">
+        <v>113</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>10</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>150</v>
       </c>
-      <c r="AA24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
+      <c r="AB24" t="s">
+        <v>114</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3003,47 +3102,50 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25">
         <v>200</v>
       </c>
-      <c r="H25" t="s">
-        <v>111</v>
-      </c>
-      <c r="J25">
-        <v>-1</v>
+      <c r="I25" t="s">
+        <v>116</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>8</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>10</v>
       </c>
-      <c r="AA25" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
+      <c r="AB25" t="s">
+        <v>117</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3059,35 +3161,38 @@
       <c r="E26">
         <v>-1</v>
       </c>
-      <c r="F26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26">
         <v>400</v>
       </c>
-      <c r="H26" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26">
-        <v>-1</v>
+      <c r="I26" t="s">
+        <v>119</v>
       </c>
       <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB26">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>120</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3103,35 +3208,38 @@
       <c r="E27">
         <v>-1</v>
       </c>
-      <c r="F27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27">
         <v>200</v>
       </c>
-      <c r="H27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27">
-        <v>-1</v>
+      <c r="I27" t="s">
+        <v>122</v>
       </c>
       <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>123</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3147,35 +3255,38 @@
       <c r="E28">
         <v>-1</v>
       </c>
-      <c r="F28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28">
         <v>200</v>
       </c>
-      <c r="H28" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28">
-        <v>-1</v>
+      <c r="I28" t="s">
+        <v>125</v>
       </c>
       <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>126</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3191,35 +3302,38 @@
       <c r="E29">
         <v>-1</v>
       </c>
-      <c r="F29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29">
         <v>200</v>
       </c>
-      <c r="H29" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29">
-        <v>-1</v>
+      <c r="I29" t="s">
+        <v>128</v>
       </c>
       <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB29">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>129</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3235,36 +3349,39 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30">
         <v>400</v>
       </c>
-      <c r="H30" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30">
-        <v>-1</v>
+      <c r="I30" t="s">
+        <v>131</v>
       </c>
       <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB30">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>132</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:Q30">
+  <sortState ref="B2:R30">
     <sortCondition ref="C2:C30"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -321,6 +321,15 @@
   </si>
   <si>
     <t>month_card吧啦吧啦吧啦吧啦吧啦吧啦</t>
+  </si>
+  <si>
+    <t>混元剑坯</t>
+  </si>
+  <si>
+    <t>hunyuan_sword_icon</t>
+  </si>
+  <si>
+    <t>混元剑坯吧啦吧啦吧啦吧啦吧啦吧啦</t>
   </si>
 </sst>
 </file>
@@ -1471,10 +1480,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2540,6 +2549,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:K30">
     <sortCondition ref="A2"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -68,7 +68,7 @@
     <t>wood_sword_icon</t>
   </si>
   <si>
-    <t>wood_sword吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>木剑，木头做的剑</t>
   </si>
   <si>
     <t>iron_sword</t>
@@ -77,7 +77,7 @@
     <t>iron_sword_icon</t>
   </si>
   <si>
-    <t>iron_sword吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>铁剑，铁头做的剑</t>
   </si>
   <si>
     <t>magic_sword</t>
@@ -86,7 +86,7 @@
     <t>magic_sword_icon</t>
   </si>
   <si>
-    <t>magic_sword吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>神魔一念，穿越千年的神秘，破空而出的神剑，耀世现身，天命所归，王者归来！</t>
   </si>
   <si>
     <t>fast_shoes</t>
@@ -95,7 +95,7 @@
     <t>fast_shoes_icon</t>
   </si>
   <si>
-    <t>fast_shoes吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>急行靴，打得好不如跑得快</t>
   </si>
   <si>
     <t>stab_shield</t>
@@ -104,7 +104,7 @@
     <t>stab_shield_icon</t>
   </si>
   <si>
-    <t>stab_shield吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>刺盾，发明它不知霍霍了多少刺猬</t>
   </si>
   <si>
     <t>arm_shield</t>
@@ -113,7 +113,7 @@
     <t>arm_shield_icon</t>
   </si>
   <si>
-    <t>arm_shield吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>军盾，军盾是不是比木盾要响，哦，那是军鼓</t>
   </si>
   <si>
     <t>wood_shield</t>
@@ -122,7 +122,7 @@
     <t>wood_shield_icon</t>
   </si>
   <si>
-    <t>wood_shield吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>木盾，木头做的盾</t>
   </si>
   <si>
     <t>long_arch</t>
@@ -131,7 +131,7 @@
     <t>long_arch_icon</t>
   </si>
   <si>
-    <t>long_arch吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>长弓，长一点的木弓</t>
   </si>
   <si>
     <t>wood_arch</t>
@@ -140,7 +140,7 @@
     <t>wood_arch_icon</t>
   </si>
   <si>
-    <t>wood_arch吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>木弓，木头做的弓</t>
   </si>
   <si>
     <t>zhuge_bow</t>
@@ -149,7 +149,7 @@
     <t>zhuge_bow_icon</t>
   </si>
   <si>
-    <t>zhuge_bow吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>诸葛连弩，连弩，请认准诸葛牌。妈妈再也不担心我打不过敌人啦</t>
   </si>
   <si>
     <t>multi_bow</t>
@@ -158,7 +158,7 @@
     <t>multi_bow_icon</t>
   </si>
   <si>
-    <t>multi_bow吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>多发弩，诸葛兄据说受了他的启发</t>
   </si>
   <si>
     <t>hand_bow</t>
@@ -167,7 +167,7 @@
     <t>hand_bow_icon</t>
   </si>
   <si>
-    <t>hand_bow吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>手弩，建议距离三米之外安全释放</t>
   </si>
   <si>
     <t>shadow_charm</t>
@@ -176,7 +176,7 @@
     <t>shadow_charm_icon</t>
   </si>
   <si>
-    <t>shadow_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>暗影符，无形之刃，后面忘了</t>
   </si>
   <si>
     <t>exchange_charm</t>
@@ -185,7 +185,7 @@
     <t>exchange_charm_icon</t>
   </si>
   <si>
-    <t>exchange_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>交换符，也叫乾坤大挪移</t>
   </si>
   <si>
     <t>silent_charm</t>
@@ -194,7 +194,7 @@
     <t>silent_charm_icon</t>
   </si>
   <si>
-    <t>silent_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>静默符，告诉静静，我想吃鱼了</t>
   </si>
   <si>
     <t>confine_charm</t>
@@ -203,7 +203,7 @@
     <t>confine_charm_icon</t>
   </si>
   <si>
-    <t>confine_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>禁锢符，不许动，我是警察</t>
   </si>
   <si>
     <t>thunder_charm</t>
@@ -212,7 +212,7 @@
     <t>thunder_charm_icon</t>
   </si>
   <si>
-    <t>thunder_charm吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>奔雷符，滚滚长江东逝水～哦，是雷啊</t>
   </si>
   <si>
     <t>energy_potion</t>
@@ -221,7 +221,7 @@
     <t>energy_potion_icon</t>
   </si>
   <si>
-    <t>energy_potion吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>能量药水，此时不用，更待何时</t>
   </si>
   <si>
     <t>angry_potion</t>
@@ -230,7 +230,7 @@
     <t>angry_potion_icon</t>
   </si>
   <si>
-    <t>angry_potion吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>愤怒药水，进攻干嘛，愣着啊</t>
   </si>
   <si>
     <t>lucky_potion</t>
@@ -239,7 +239,7 @@
     <t>lucky_potion_icon</t>
   </si>
   <si>
-    <t>lucky_potion吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>幸运药水，顾名思义</t>
   </si>
   <si>
     <t>king_arrow</t>
@@ -284,7 +284,7 @@
     <t>boutique_feather_icon</t>
   </si>
   <si>
-    <t>boutique_feather吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>精品羽毛，看上去有一定收藏价值</t>
   </si>
   <si>
     <t>boutique_rice</t>
@@ -293,7 +293,7 @@
     <t>boutique_rice_icon</t>
   </si>
   <si>
-    <t>boutique_rice吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>精品稻谷，颗颗饱满圆润，一定很美味</t>
   </si>
   <si>
     <t>trophy</t>
@@ -302,7 +302,7 @@
     <t>trophy_icon</t>
   </si>
   <si>
-    <t>trophy吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>奖杯，是什么比赛的呢</t>
   </si>
   <si>
     <t>jerky</t>
@@ -311,7 +311,7 @@
     <t>jerky_icon</t>
   </si>
   <si>
-    <t>jerky吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>肉条，砸巴嘴</t>
   </si>
   <si>
     <t>month_card</t>
@@ -320,7 +320,7 @@
     <t>month_card_icon</t>
   </si>
   <si>
-    <t>month_card吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>月卡，听说这家健身房是全国连锁的</t>
   </si>
   <si>
     <t>混元剑坯</t>
@@ -329,7 +329,7 @@
     <t>hunyuan_sword_icon</t>
   </si>
   <si>
-    <t>混元剑坯吧啦吧啦吧啦吧啦吧啦吧啦</t>
+    <t>混元剑坯，具有成长性</t>
   </si>
 </sst>
 </file>
@@ -1482,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="19200" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
     <t>subID</t>
   </si>
   <si>
+    <t>sellType</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -330,6 +333,45 @@
   </si>
   <si>
     <t>混元剑坯，具有成长性</t>
+  </si>
+  <si>
+    <t>胡萝卜须</t>
+  </si>
+  <si>
+    <t>food_icon</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>番茄炒西红柿</t>
+  </si>
+  <si>
+    <t>蔬菜杂烩</t>
+  </si>
+  <si>
+    <t>气泡水</t>
+  </si>
+  <si>
+    <t>黑色汽水</t>
+  </si>
+  <si>
+    <t>鸡毛大白菜</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>甘蔗</t>
+  </si>
+  <si>
+    <t>黄瓜</t>
+  </si>
+  <si>
+    <t>地薯</t>
+  </si>
+  <si>
+    <t>土豆</t>
   </si>
 </sst>
 </file>
@@ -1480,10 +1522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1491,15 +1533,16 @@
     <col min="1" max="1" width="4.70192307692308" customWidth="1"/>
     <col min="2" max="2" width="5.39423076923077" customWidth="1"/>
     <col min="3" max="3" width="5.48076923076923" customWidth="1"/>
-    <col min="4" max="5" width="14.6730769230769" customWidth="1"/>
-    <col min="7" max="7" width="19.5961538461538" customWidth="1"/>
-    <col min="8" max="8" width="80.1153846153846" customWidth="1"/>
-    <col min="9" max="9" width="12.0769230769231" customWidth="1"/>
-    <col min="10" max="10" width="12.5673076923077" customWidth="1"/>
-    <col min="11" max="11" width="12.3173076923077" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="6" width="14.6730769230769" customWidth="1"/>
+    <col min="8" max="8" width="19.5961538461538" customWidth="1"/>
+    <col min="9" max="9" width="80.1153846153846" customWidth="1"/>
+    <col min="10" max="10" width="12.0769230769231" customWidth="1"/>
+    <col min="11" max="11" width="12.5673076923077" customWidth="1"/>
+    <col min="12" max="12" width="12.3173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1564,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1533,8 +1576,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1547,29 +1593,32 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
         <v>100</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2">
-        <v>-1</v>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1582,29 +1631,32 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
         <v>200</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
-        <v>-1</v>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1617,29 +1669,32 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
         <v>400</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4">
-        <v>-1</v>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1652,29 +1707,32 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
         <v>400</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="I5">
-        <v>-1</v>
+      <c r="I5" t="s">
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1687,29 +1745,32 @@
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
         <v>400</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6">
-        <v>-1</v>
+      <c r="I6" t="s">
+        <v>26</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1722,29 +1783,32 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
         <v>200</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="I7">
-        <v>-1</v>
+      <c r="I7" t="s">
+        <v>29</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1757,29 +1821,32 @@
       <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
         <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="I8">
-        <v>-1</v>
+      <c r="I8" t="s">
+        <v>32</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1792,29 +1859,32 @@
       <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
         <v>200</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9">
-        <v>-1</v>
+      <c r="I9" t="s">
+        <v>35</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1827,29 +1897,32 @@
       <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
         <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
       </c>
-      <c r="I10">
-        <v>-1</v>
+      <c r="I10" t="s">
+        <v>38</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1862,29 +1935,32 @@
       <c r="D11" s="1">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11">
         <v>400</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="I11">
-        <v>-1</v>
+      <c r="I11" t="s">
+        <v>41</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1897,29 +1973,32 @@
       <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
         <v>200</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
       </c>
-      <c r="I12">
-        <v>-1</v>
+      <c r="I12" t="s">
+        <v>44</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1932,29 +2011,32 @@
       <c r="D13" s="1">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
         <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
       </c>
       <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="I13">
-        <v>-1</v>
+      <c r="I13" t="s">
+        <v>47</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1967,29 +2049,32 @@
       <c r="D14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
         <v>200</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
       </c>
       <c r="H14" t="s">
         <v>49</v>
       </c>
-      <c r="I14">
-        <v>-1</v>
+      <c r="I14" t="s">
+        <v>50</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2002,29 +2087,32 @@
       <c r="D15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15">
         <v>200</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
       </c>
       <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="I15">
-        <v>-1</v>
+      <c r="I15" t="s">
+        <v>53</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2037,29 +2125,32 @@
       <c r="D16" s="1">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
         <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
       </c>
       <c r="H16" t="s">
         <v>55</v>
       </c>
-      <c r="I16">
-        <v>-1</v>
+      <c r="I16" t="s">
+        <v>56</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2072,29 +2163,32 @@
       <c r="D17" s="1">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17">
         <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
       </c>
-      <c r="I17">
-        <v>-1</v>
+      <c r="I17" t="s">
+        <v>59</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2107,29 +2201,32 @@
       <c r="D18" s="1">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18">
         <v>100</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
       </c>
-      <c r="I18">
-        <v>-1</v>
+      <c r="I18" t="s">
+        <v>62</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2142,29 +2239,32 @@
       <c r="D19">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19">
         <v>200</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
       </c>
       <c r="H19" t="s">
         <v>64</v>
       </c>
-      <c r="I19">
-        <v>-1</v>
+      <c r="I19" t="s">
+        <v>65</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2177,29 +2277,32 @@
       <c r="D20">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20">
         <v>200</v>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
       </c>
       <c r="H20" t="s">
         <v>67</v>
       </c>
-      <c r="I20">
-        <v>-1</v>
+      <c r="I20" t="s">
+        <v>68</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2212,29 +2315,32 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21">
         <v>200</v>
-      </c>
-      <c r="G21" t="s">
-        <v>69</v>
       </c>
       <c r="H21" t="s">
         <v>70</v>
       </c>
-      <c r="I21">
-        <v>-1</v>
+      <c r="I21" t="s">
+        <v>71</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2247,29 +2353,32 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22">
         <v>200</v>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
       </c>
       <c r="H22" t="s">
         <v>73</v>
       </c>
-      <c r="I22">
-        <v>-1</v>
+      <c r="I22" t="s">
+        <v>74</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2282,29 +2391,32 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23">
         <v>400</v>
-      </c>
-      <c r="G23" t="s">
-        <v>75</v>
       </c>
       <c r="H23" t="s">
         <v>76</v>
       </c>
-      <c r="I23">
-        <v>-1</v>
+      <c r="I23" t="s">
+        <v>77</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2317,29 +2429,32 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24">
         <v>200</v>
-      </c>
-      <c r="G24" t="s">
-        <v>78</v>
       </c>
       <c r="H24" t="s">
         <v>79</v>
       </c>
-      <c r="I24">
-        <v>-1</v>
+      <c r="I24" t="s">
+        <v>80</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2352,29 +2467,32 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25">
         <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>81</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
-      <c r="I25">
-        <v>-1</v>
+      <c r="I25" t="s">
+        <v>83</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2387,29 +2505,32 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26">
         <v>400</v>
-      </c>
-      <c r="G26" t="s">
-        <v>84</v>
       </c>
       <c r="H26" t="s">
         <v>85</v>
       </c>
-      <c r="I26">
-        <v>-1</v>
+      <c r="I26" t="s">
+        <v>86</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2422,29 +2543,32 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27">
         <v>200</v>
-      </c>
-      <c r="G27" t="s">
-        <v>87</v>
       </c>
       <c r="H27" t="s">
         <v>88</v>
       </c>
-      <c r="I27">
-        <v>-1</v>
+      <c r="I27" t="s">
+        <v>89</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2457,29 +2581,32 @@
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28">
         <v>200</v>
-      </c>
-      <c r="G28" t="s">
-        <v>90</v>
       </c>
       <c r="H28" t="s">
         <v>91</v>
       </c>
-      <c r="I28">
-        <v>-1</v>
+      <c r="I28" t="s">
+        <v>92</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2492,29 +2619,32 @@
       <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29">
         <v>200</v>
-      </c>
-      <c r="G29" t="s">
-        <v>93</v>
       </c>
       <c r="H29" t="s">
         <v>94</v>
       </c>
-      <c r="I29">
-        <v>-1</v>
+      <c r="I29" t="s">
+        <v>95</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2527,29 +2657,32 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30">
         <v>400</v>
-      </c>
-      <c r="G30" t="s">
-        <v>96</v>
       </c>
       <c r="H30" t="s">
         <v>97</v>
       </c>
-      <c r="I30">
-        <v>-1</v>
+      <c r="I30" t="s">
+        <v>98</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2562,30 +2695,451 @@
       <c r="D31">
         <v>19</v>
       </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31">
-        <v>-1</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>99</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
       </c>
       <c r="H31" t="s">
         <v>100</v>
       </c>
-      <c r="I31">
-        <v>-1</v>
+      <c r="I31" t="s">
+        <v>101</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-1</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" t="s">
+        <v>104</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-1</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-1</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40">
+        <v>-1</v>
+      </c>
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-1</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-1</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K30">
+  <sortState ref="A2:L30">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -341,37 +341,61 @@
     <t>food_icon</t>
   </si>
   <si>
-    <t>-</t>
+    <t>饱腹:{0}\n治疗:{1}\n最大血量:{2}\n</t>
   </si>
   <si>
     <t>番茄炒西红柿</t>
   </si>
   <si>
+    <t>饱腹:{0}\n治疗:{1}\n力量:{2}\n</t>
+  </si>
+  <si>
     <t>蔬菜杂烩</t>
   </si>
   <si>
     <t>气泡水</t>
   </si>
   <si>
+    <t>饱腹:{0}\n治疗:{1}\n防御:{2}\n</t>
+  </si>
+  <si>
     <t>黑色汽水</t>
   </si>
   <si>
     <t>鸡毛大白菜</t>
   </si>
   <si>
+    <t>饱腹:{0}\n治疗:{1}\n力量:{2}\n闪避:{3}\n</t>
+  </si>
+  <si>
     <t>玉米</t>
   </si>
   <si>
+    <t>饱腹:{0}\n治疗:{1}\n力量:{2}\n命中:{3}\n</t>
+  </si>
+  <si>
     <t>甘蔗</t>
   </si>
   <si>
+    <t>饱腹:{0}\n治疗:{1}\n防御:{2}\n速度:{3}\n</t>
+  </si>
+  <si>
     <t>黄瓜</t>
   </si>
   <si>
+    <t>饱腹:{0}\n幸运:{1}\n</t>
+  </si>
+  <si>
     <t>地薯</t>
   </si>
   <si>
+    <t>饱腹:{0}\n经验:{1}\n</t>
+  </si>
+  <si>
     <t>土豆</t>
+  </si>
+  <si>
+    <t>饱腹:{0}</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1548,7 @@
   <sheetPr/>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G30" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -2784,7 +2808,7 @@
         <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J33">
         <v>-1</v>
@@ -2813,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G34">
         <v>100</v>
@@ -2822,7 +2846,7 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J34">
         <v>-1</v>
@@ -2851,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G35">
         <v>100</v>
@@ -2860,7 +2884,7 @@
         <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J35">
         <v>-1</v>
@@ -2889,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -2898,7 +2922,7 @@
         <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J36">
         <v>-1</v>
@@ -2927,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -2936,7 +2960,7 @@
         <v>103</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J37">
         <v>-1</v>
@@ -2965,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -2974,7 +2998,7 @@
         <v>103</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -3003,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -3012,7 +3036,7 @@
         <v>103</v>
       </c>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J39">
         <v>-1</v>
@@ -3041,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -3050,7 +3074,7 @@
         <v>103</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J40">
         <v>-1</v>
@@ -3079,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -3088,7 +3112,7 @@
         <v>103</v>
       </c>
       <c r="I41" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="J41">
         <v>-1</v>
@@ -3117,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -3126,7 +3150,7 @@
         <v>103</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J42">
         <v>-1</v>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7440"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1548,8 +1548,8 @@
   <sheetPr/>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G30" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>priceFloatFactor</t>
   </si>
   <si>
     <t>iconResource</t>
@@ -1546,10 +1549,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1559,14 +1562,14 @@
     <col min="3" max="3" width="5.48076923076923" customWidth="1"/>
     <col min="4" max="4" width="8.125" customWidth="1"/>
     <col min="5" max="6" width="14.6730769230769" customWidth="1"/>
-    <col min="8" max="8" width="19.5961538461538" customWidth="1"/>
-    <col min="9" max="9" width="80.1153846153846" customWidth="1"/>
-    <col min="10" max="10" width="12.0769230769231" customWidth="1"/>
-    <col min="11" max="11" width="12.5673076923077" customWidth="1"/>
-    <col min="12" max="12" width="12.3173076923077" customWidth="1"/>
+    <col min="8" max="9" width="19.5961538461538" customWidth="1"/>
+    <col min="10" max="10" width="80.1153846153846" customWidth="1"/>
+    <col min="11" max="11" width="12.0769230769231" customWidth="1"/>
+    <col min="12" max="12" width="12.5673076923077" customWidth="1"/>
+    <col min="13" max="13" width="12.3173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,10 +1591,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1603,8 +1606,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1621,28 +1627,31 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
+      <c r="H2" s="1">
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>-1</v>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1659,28 +1668,31 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
+      <c r="H3" s="1">
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3">
-        <v>-1</v>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1697,28 +1709,31 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>400</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
+      <c r="H4" s="2">
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4">
-        <v>-1</v>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1735,28 +1750,31 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>400</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
+      <c r="H5">
+        <v>80</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="J5">
-        <v>-1</v>
+      <c r="J5" t="s">
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1773,28 +1791,31 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>400</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
+      <c r="H6">
+        <v>80</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="J6">
-        <v>-1</v>
+      <c r="J6" t="s">
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1811,28 +1832,31 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>200</v>
       </c>
-      <c r="H7" t="s">
-        <v>28</v>
+      <c r="H7">
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="J7">
-        <v>-1</v>
+      <c r="J7" t="s">
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1849,28 +1873,31 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
-      <c r="H8" t="s">
-        <v>31</v>
+      <c r="H8">
+        <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8">
-        <v>-1</v>
+      <c r="J8" t="s">
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1887,28 +1914,31 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>200</v>
       </c>
-      <c r="H9" t="s">
-        <v>34</v>
+      <c r="H9">
+        <v>40</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="J9">
-        <v>-1</v>
+      <c r="J9" t="s">
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1925,28 +1955,31 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
-      <c r="H10" t="s">
-        <v>37</v>
+      <c r="H10">
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>38</v>
       </c>
-      <c r="J10">
-        <v>-1</v>
+      <c r="J10" t="s">
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1963,28 +1996,31 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>400</v>
       </c>
-      <c r="H11" t="s">
-        <v>40</v>
+      <c r="H11">
+        <v>80</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
       </c>
-      <c r="J11">
-        <v>-1</v>
+      <c r="J11" t="s">
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2001,28 +2037,31 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>200</v>
       </c>
-      <c r="H12" t="s">
-        <v>43</v>
+      <c r="H12">
+        <v>40</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
       </c>
-      <c r="J12">
-        <v>-1</v>
+      <c r="J12" t="s">
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2039,28 +2078,31 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>100</v>
       </c>
-      <c r="H13" t="s">
-        <v>46</v>
+      <c r="H13">
+        <v>20</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
       </c>
-      <c r="J13">
-        <v>-1</v>
+      <c r="J13" t="s">
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2077,28 +2119,31 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>200</v>
       </c>
-      <c r="H14" t="s">
-        <v>49</v>
+      <c r="H14">
+        <v>40</v>
       </c>
       <c r="I14" t="s">
         <v>50</v>
       </c>
-      <c r="J14">
-        <v>-1</v>
+      <c r="J14" t="s">
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2115,28 +2160,31 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>200</v>
       </c>
-      <c r="H15" t="s">
-        <v>52</v>
+      <c r="H15">
+        <v>40</v>
       </c>
       <c r="I15" t="s">
         <v>53</v>
       </c>
-      <c r="J15">
-        <v>-1</v>
+      <c r="J15" t="s">
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2153,28 +2201,31 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16">
         <v>100</v>
       </c>
-      <c r="H16" t="s">
-        <v>55</v>
+      <c r="H16">
+        <v>20</v>
       </c>
       <c r="I16" t="s">
         <v>56</v>
       </c>
-      <c r="J16">
-        <v>-1</v>
+      <c r="J16" t="s">
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2191,28 +2242,31 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
-      <c r="H17" t="s">
-        <v>58</v>
+      <c r="H17">
+        <v>20</v>
       </c>
       <c r="I17" t="s">
         <v>59</v>
       </c>
-      <c r="J17">
-        <v>-1</v>
+      <c r="J17" t="s">
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2229,28 +2283,31 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
-      <c r="H18" t="s">
-        <v>61</v>
+      <c r="H18">
+        <v>20</v>
       </c>
       <c r="I18" t="s">
         <v>62</v>
       </c>
-      <c r="J18">
-        <v>-1</v>
+      <c r="J18" t="s">
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2267,28 +2324,31 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19">
         <v>200</v>
       </c>
-      <c r="H19" t="s">
-        <v>64</v>
+      <c r="H19">
+        <v>40</v>
       </c>
       <c r="I19" t="s">
         <v>65</v>
       </c>
-      <c r="J19">
-        <v>-1</v>
+      <c r="J19" t="s">
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2305,28 +2365,31 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
-      <c r="H20" t="s">
-        <v>67</v>
+      <c r="H20">
+        <v>40</v>
       </c>
       <c r="I20" t="s">
         <v>68</v>
       </c>
-      <c r="J20">
-        <v>-1</v>
+      <c r="J20" t="s">
+        <v>69</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2343,28 +2406,31 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>200</v>
       </c>
-      <c r="H21" t="s">
-        <v>70</v>
+      <c r="H21">
+        <v>40</v>
       </c>
       <c r="I21" t="s">
         <v>71</v>
       </c>
-      <c r="J21">
-        <v>-1</v>
+      <c r="J21" t="s">
+        <v>72</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2381,28 +2447,31 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>200</v>
       </c>
-      <c r="H22" t="s">
-        <v>73</v>
+      <c r="H22">
+        <v>40</v>
       </c>
       <c r="I22" t="s">
         <v>74</v>
       </c>
-      <c r="J22">
-        <v>-1</v>
+      <c r="J22" t="s">
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2419,28 +2488,31 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>400</v>
       </c>
-      <c r="H23" t="s">
-        <v>76</v>
+      <c r="H23">
+        <v>80</v>
       </c>
       <c r="I23" t="s">
         <v>77</v>
       </c>
-      <c r="J23">
-        <v>-1</v>
+      <c r="J23" t="s">
+        <v>78</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2457,28 +2529,31 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24">
         <v>200</v>
       </c>
-      <c r="H24" t="s">
-        <v>79</v>
+      <c r="H24">
+        <v>40</v>
       </c>
       <c r="I24" t="s">
         <v>80</v>
       </c>
-      <c r="J24">
-        <v>-1</v>
+      <c r="J24" t="s">
+        <v>81</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2495,28 +2570,31 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25">
         <v>100</v>
       </c>
-      <c r="H25" t="s">
-        <v>82</v>
+      <c r="H25">
+        <v>20</v>
       </c>
       <c r="I25" t="s">
         <v>83</v>
       </c>
-      <c r="J25">
-        <v>-1</v>
+      <c r="J25" t="s">
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2533,28 +2611,31 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
-      <c r="H26" t="s">
-        <v>85</v>
+      <c r="H26">
+        <v>80</v>
       </c>
       <c r="I26" t="s">
         <v>86</v>
       </c>
-      <c r="J26">
-        <v>-1</v>
+      <c r="J26" t="s">
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2571,28 +2652,31 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27">
         <v>200</v>
       </c>
-      <c r="H27" t="s">
-        <v>88</v>
+      <c r="H27">
+        <v>40</v>
       </c>
       <c r="I27" t="s">
         <v>89</v>
       </c>
-      <c r="J27">
-        <v>-1</v>
+      <c r="J27" t="s">
+        <v>90</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2609,28 +2693,31 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
-      <c r="H28" t="s">
-        <v>91</v>
+      <c r="H28">
+        <v>40</v>
       </c>
       <c r="I28" t="s">
         <v>92</v>
       </c>
-      <c r="J28">
-        <v>-1</v>
+      <c r="J28" t="s">
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2647,28 +2734,31 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29">
         <v>200</v>
       </c>
-      <c r="H29" t="s">
-        <v>94</v>
+      <c r="H29">
+        <v>40</v>
       </c>
       <c r="I29" t="s">
         <v>95</v>
       </c>
-      <c r="J29">
-        <v>-1</v>
+      <c r="J29" t="s">
+        <v>96</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2685,28 +2775,31 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30">
         <v>400</v>
       </c>
-      <c r="H30" t="s">
-        <v>97</v>
+      <c r="H30">
+        <v>40</v>
       </c>
       <c r="I30" t="s">
         <v>98</v>
       </c>
-      <c r="J30">
-        <v>-1</v>
+      <c r="J30" t="s">
+        <v>99</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2723,28 +2816,31 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>-1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>101</v>
       </c>
-      <c r="J31">
-        <v>-1</v>
+      <c r="J31" t="s">
+        <v>102</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2761,19 +2857,19 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G32">
         <v>100</v>
       </c>
-      <c r="H32" t="s">
-        <v>103</v>
+      <c r="H32">
+        <v>20</v>
       </c>
       <c r="I32" t="s">
         <v>104</v>
       </c>
-      <c r="J32">
-        <v>-1</v>
+      <c r="J32" t="s">
+        <v>105</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -2781,8 +2877,11 @@
       <c r="L32">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2799,19 +2898,19 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G33">
         <v>100</v>
       </c>
-      <c r="H33" t="s">
-        <v>103</v>
+      <c r="H33">
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J33" t="s">
+        <v>107</v>
       </c>
       <c r="K33">
         <v>-1</v>
@@ -2819,8 +2918,11 @@
       <c r="L33">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2837,19 +2939,19 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G34">
         <v>100</v>
       </c>
-      <c r="H34" t="s">
-        <v>103</v>
+      <c r="H34">
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J34" t="s">
+        <v>107</v>
       </c>
       <c r="K34">
         <v>-1</v>
@@ -2857,8 +2959,11 @@
       <c r="L34">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2875,19 +2980,19 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G35">
         <v>100</v>
       </c>
-      <c r="H35" t="s">
-        <v>103</v>
+      <c r="H35">
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J35" t="s">
+        <v>110</v>
       </c>
       <c r="K35">
         <v>-1</v>
@@ -2895,8 +3000,11 @@
       <c r="L35">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2913,19 +3021,19 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
-      <c r="H36" t="s">
-        <v>103</v>
+      <c r="H36">
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J36" t="s">
+        <v>110</v>
       </c>
       <c r="K36">
         <v>-1</v>
@@ -2933,8 +3041,11 @@
       <c r="L36">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2951,19 +3062,19 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G37">
         <v>100</v>
       </c>
-      <c r="H37" t="s">
-        <v>103</v>
+      <c r="H37">
+        <v>40</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
-      </c>
-      <c r="J37">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J37" t="s">
+        <v>113</v>
       </c>
       <c r="K37">
         <v>-1</v>
@@ -2971,8 +3082,11 @@
       <c r="L37">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2989,19 +3103,19 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G38">
         <v>100</v>
       </c>
-      <c r="H38" t="s">
-        <v>103</v>
+      <c r="H38">
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J38" t="s">
+        <v>115</v>
       </c>
       <c r="K38">
         <v>-1</v>
@@ -3009,8 +3123,11 @@
       <c r="L38">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3027,19 +3144,19 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G39">
         <v>100</v>
       </c>
-      <c r="H39" t="s">
-        <v>103</v>
+      <c r="H39">
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J39" t="s">
+        <v>117</v>
       </c>
       <c r="K39">
         <v>-1</v>
@@ -3047,8 +3164,11 @@
       <c r="L39">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3065,19 +3185,19 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G40">
         <v>100</v>
       </c>
-      <c r="H40" t="s">
-        <v>103</v>
+      <c r="H40">
+        <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J40" t="s">
+        <v>119</v>
       </c>
       <c r="K40">
         <v>-1</v>
@@ -3085,8 +3205,11 @@
       <c r="L40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3103,19 +3226,19 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G41">
         <v>100</v>
       </c>
-      <c r="H41" t="s">
-        <v>103</v>
+      <c r="H41">
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
-      </c>
-      <c r="J41">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J41" t="s">
+        <v>121</v>
       </c>
       <c r="K41">
         <v>-1</v>
@@ -3123,8 +3246,11 @@
       <c r="L41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3141,19 +3267,19 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G42">
         <v>100</v>
       </c>
-      <c r="H42" t="s">
-        <v>103</v>
+      <c r="H42">
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>122</v>
-      </c>
-      <c r="J42">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="J42" t="s">
+        <v>123</v>
       </c>
       <c r="K42">
         <v>-1</v>
@@ -3161,9 +3287,12 @@
       <c r="L42">
         <v>-1</v>
       </c>
+      <c r="M42">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L30">
+  <sortState ref="A2:M30">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/StoreItemDefine.xlsx
+++ b/Data/StoreItemDefine.xlsx
@@ -1551,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
